--- a/xbrx_12345_excel_tool/templates/sangao_template.xlsx
+++ b/xbrx_12345_excel_tool/templates/sangao_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22440" windowHeight="11790"/>
+    <workbookView windowWidth="22440" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -204,225 +204,225 @@
     <t>表井维修</t>
   </si>
   <si>
+    <t>普利市政管网公司</t>
+  </si>
+  <si>
+    <t>方形井盖补换</t>
+  </si>
+  <si>
+    <t>东区供水公司</t>
+  </si>
+  <si>
+    <t>换表后漏水</t>
+  </si>
+  <si>
+    <t>营业部</t>
+  </si>
+  <si>
+    <t>换表维修后无水</t>
+  </si>
+  <si>
+    <t>二次供水管理部</t>
+  </si>
+  <si>
+    <t>水表自转</t>
+  </si>
+  <si>
+    <t>客户发展部</t>
+  </si>
+  <si>
+    <t>表蒙子漏水</t>
+  </si>
+  <si>
+    <t>水质中心</t>
+  </si>
+  <si>
+    <t>水表丢失</t>
+  </si>
+  <si>
+    <t>工程管理部</t>
+  </si>
+  <si>
+    <t>水表损坏</t>
+  </si>
+  <si>
+    <t>普润水务</t>
+  </si>
+  <si>
+    <t>水表更换</t>
+  </si>
+  <si>
+    <t>加压供水管理部</t>
+  </si>
+  <si>
+    <t>水量的异议</t>
+  </si>
+  <si>
+    <t>房地产物业管理部</t>
+  </si>
+  <si>
+    <t>表止度的异议</t>
+  </si>
+  <si>
+    <t>稽查大队</t>
+  </si>
+  <si>
+    <t>违约金的异议</t>
+  </si>
+  <si>
+    <t>安全生产部</t>
+  </si>
+  <si>
+    <t>抄收服务</t>
+  </si>
+  <si>
+    <t>长清供水公司</t>
+  </si>
+  <si>
+    <t>退费核减</t>
+  </si>
+  <si>
+    <t>西城供水公司</t>
+  </si>
+  <si>
+    <t>对各类通知单及短信的异议</t>
+  </si>
+  <si>
+    <t>南山供水</t>
+  </si>
+  <si>
+    <t>处理方案未落实</t>
+  </si>
+  <si>
+    <t>普利工程公司</t>
+  </si>
+  <si>
+    <t>井室整治</t>
+  </si>
+  <si>
+    <t>热线科</t>
+  </si>
+  <si>
+    <t>井盖补换</t>
+  </si>
+  <si>
     <t>设施科</t>
   </si>
   <si>
-    <t>方形井盖补换</t>
-  </si>
-  <si>
-    <t>稽查大队</t>
-  </si>
-  <si>
-    <t>换表后漏水</t>
+    <t>表箱改造整治</t>
+  </si>
+  <si>
+    <t>管网部</t>
+  </si>
+  <si>
+    <t>内部协调</t>
+  </si>
+  <si>
+    <t>泓泉制水公司</t>
+  </si>
+  <si>
+    <t>闸门开关</t>
+  </si>
+  <si>
+    <t>泉娃饮用水公司</t>
+  </si>
+  <si>
+    <t>闸门开关DN&lt;300</t>
+  </si>
+  <si>
+    <t>信息中心</t>
+  </si>
+  <si>
+    <t>闸门开关DN≥300</t>
+  </si>
+  <si>
+    <t>人力资源部</t>
+  </si>
+  <si>
+    <t>转派其他部门</t>
+  </si>
+  <si>
+    <t>服务督查科</t>
+  </si>
+  <si>
+    <t>区域性无水水压低</t>
+  </si>
+  <si>
+    <t>管网工程公司</t>
+  </si>
+  <si>
+    <t>单户无水水压低</t>
+  </si>
+  <si>
+    <t>普天检漏公司</t>
+  </si>
+  <si>
+    <t>二供设备无水水压低</t>
+  </si>
+  <si>
+    <t>企业管理部</t>
+  </si>
+  <si>
+    <t>管道损坏漏水</t>
+  </si>
+  <si>
+    <t>保卫部</t>
+  </si>
+  <si>
+    <t>闸门损坏漏水</t>
+  </si>
+  <si>
+    <t>总工办</t>
+  </si>
+  <si>
+    <t>消防损坏漏水</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>闸门井盖损坏</t>
   </si>
   <si>
     <t>水厂项目部</t>
   </si>
   <si>
-    <t>换表维修后无水</t>
-  </si>
-  <si>
-    <t>人力资源部</t>
-  </si>
-  <si>
-    <t>水表自转</t>
-  </si>
-  <si>
-    <t>泉娃饮用水公司</t>
-  </si>
-  <si>
-    <t>表蒙子漏水</t>
-  </si>
-  <si>
-    <t>房地产物业管理部</t>
-  </si>
-  <si>
-    <t>水表丢失</t>
-  </si>
-  <si>
-    <t>普润水务</t>
-  </si>
-  <si>
-    <t>水表损坏</t>
-  </si>
-  <si>
-    <t>客户发展部</t>
-  </si>
-  <si>
-    <t>水表更换</t>
+    <t>管廊漏水</t>
+  </si>
+  <si>
+    <t>设计院</t>
+  </si>
+  <si>
+    <t>局部管线更换</t>
   </si>
   <si>
     <t>客服中心</t>
   </si>
   <si>
-    <t>水量的异议</t>
-  </si>
-  <si>
-    <t>普利工程公司</t>
-  </si>
-  <si>
-    <t>表止度的异议</t>
-  </si>
-  <si>
-    <t>南山供水</t>
-  </si>
-  <si>
-    <t>违约金的异议</t>
-  </si>
-  <si>
-    <t>安全生产部</t>
-  </si>
-  <si>
-    <t>抄收服务</t>
-  </si>
-  <si>
-    <t>设计院</t>
-  </si>
-  <si>
-    <t>退费核减</t>
-  </si>
-  <si>
-    <t>工程管理部</t>
-  </si>
-  <si>
-    <t>对各类通知单及短信的异议</t>
-  </si>
-  <si>
-    <t>水质中心</t>
-  </si>
-  <si>
-    <t>处理方案未落实</t>
-  </si>
-  <si>
-    <t>泓泉制水公司</t>
-  </si>
-  <si>
-    <t>井室整治</t>
+    <t>废旧管线掐管</t>
   </si>
   <si>
     <t>办公室</t>
   </si>
   <si>
-    <t>井盖补换</t>
-  </si>
-  <si>
-    <t>西城供水公司</t>
-  </si>
-  <si>
-    <t>表箱改造整治</t>
-  </si>
-  <si>
-    <t>企业管理部</t>
-  </si>
-  <si>
-    <t>内部协调</t>
-  </si>
-  <si>
-    <t>加压供水管理部</t>
-  </si>
-  <si>
-    <t>闸门开关</t>
-  </si>
-  <si>
-    <t>信息中心</t>
-  </si>
-  <si>
-    <t>闸门开关DN&lt;300</t>
-  </si>
-  <si>
-    <t>营业部</t>
-  </si>
-  <si>
-    <t>闸门开关DN≥300</t>
-  </si>
-  <si>
-    <t>管网部</t>
-  </si>
-  <si>
-    <t>转派其他部门</t>
-  </si>
-  <si>
-    <t>管网工程公司</t>
-  </si>
-  <si>
-    <t>区域性无水水压低</t>
-  </si>
-  <si>
-    <t>东区供水公司</t>
-  </si>
-  <si>
-    <t>单户无水水压低</t>
-  </si>
-  <si>
-    <t>保卫部</t>
-  </si>
-  <si>
-    <t>二供设备无水水压低</t>
-  </si>
-  <si>
-    <t>普利市政管网公司</t>
-  </si>
-  <si>
-    <t>管道损坏漏水</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>闸门损坏漏水</t>
+    <t>闸门丼室整治</t>
   </si>
   <si>
     <t>生技科</t>
   </si>
   <si>
-    <t>消防损坏漏水</t>
-  </si>
-  <si>
-    <t>总工办</t>
-  </si>
-  <si>
-    <t>闸门井盖损坏</t>
-  </si>
-  <si>
-    <t>服务督查科</t>
-  </si>
-  <si>
-    <t>管廊漏水</t>
+    <t>闸门故障</t>
   </si>
   <si>
     <t>检漏科</t>
   </si>
   <si>
-    <t>局部管线更换</t>
-  </si>
-  <si>
-    <t>普天检漏公司</t>
-  </si>
-  <si>
-    <t>废旧管线掐管</t>
-  </si>
-  <si>
-    <t>长清供水公司</t>
-  </si>
-  <si>
-    <t>闸门丼室整治</t>
-  </si>
-  <si>
-    <t>二次供水管理部</t>
-  </si>
-  <si>
-    <t>闸门故障</t>
+    <t>消防维护</t>
   </si>
   <si>
     <t>管网所</t>
   </si>
   <si>
-    <t>消防维护</t>
-  </si>
-  <si>
-    <t>热线科</t>
-  </si>
-  <si>
     <t>施工回填</t>
   </si>
   <si>
@@ -567,7 +567,7 @@
     <t>施工扰民无围挡</t>
   </si>
   <si>
-    <t>施工扰民其他扰民</t>
+    <t>其他施工扰民</t>
   </si>
   <si>
     <t xml:space="preserve">直饮水无水 </t>
@@ -654,8 +654,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -693,6 +693,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -700,14 +707,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,37 +777,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,22 +790,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -789,7 +807,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -804,37 +822,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -851,187 +851,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,6 +1060,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1071,17 +1095,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1103,9 +1116,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,36 +1157,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1165,10 +1165,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,133 +1177,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1645,7 +1645,7 @@
   <sheetPr/>
   <dimension ref="A1:AW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1809,12 +1809,12 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576 C$1:C$1048576 D$1:D$1048576 E$1:E$1048576">
+      <formula1>Sheet2!$B$2:$B$23</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F717:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1000">
       <formula1>Sheet2!$A$2:$A$118</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576 C$1:C$1048576 D$1:D$1048576 E$1:E$1048576">
-      <formula1>Sheet2!$B$2:$B$43</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F716">
       <formula1>"是,否"</formula1>
@@ -1831,8 +1831,8 @@
   <sheetPr/>
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/xbrx_12345_excel_tool/templates/sangao_template.xlsx
+++ b/xbrx_12345_excel_tool/templates/sangao_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22440" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
   <si>
     <t>服务类别</t>
   </si>
@@ -646,6 +646,12 @@
   </si>
   <si>
     <t>结清欠费恢复供水</t>
+  </si>
+  <si>
+    <t>水表冻表</t>
+  </si>
+  <si>
+    <t>冻管无水</t>
   </si>
 </sst>
 </file>
@@ -693,44 +699,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -752,10 +721,69 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -767,9 +795,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,54 +834,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,25 +857,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,157 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,15 +1067,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1084,16 +1105,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1116,26 +1137,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1151,9 +1155,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1165,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1177,133 +1183,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1393,7 +1399,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1645,8 +1651,8 @@
   <sheetPr/>
   <dimension ref="A1:AW1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D975" sqref="D975"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1809,15 +1815,15 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576 C$1:C$1048576 D$1:D$1048576 E$1:E$1048576">
-      <formula1>Sheet2!$B$2:$B$23</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F717:F1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1000">
-      <formula1>Sheet2!$A$2:$A$118</formula1>
+      <formula1>Sheet2!$A$2:$A$120</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F716">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:E$1048576">
+      <formula1>Sheet2!$B$2:$B$23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1829,10 +1835,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2560,8 +2566,18 @@
         <v>208</v>
       </c>
     </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2585,7 +2601,7 @@
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/xbrx_12345_excel_tool/templates/sangao_template.xlsx
+++ b/xbrx_12345_excel_tool/templates/sangao_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13650"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -648,10 +648,10 @@
     <t>结清欠费恢复供水</t>
   </si>
   <si>
+    <t>冻管无水</t>
+  </si>
+  <si>
     <t>水表冻表</t>
-  </si>
-  <si>
-    <t>冻管无水</t>
   </si>
 </sst>
 </file>
@@ -698,76 +698,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,7 +721,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -796,9 +743,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,25 +835,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,25 +863,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,151 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,6 +1067,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1077,6 +1092,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,38 +1129,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,15 +1149,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1171,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,137 +1183,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,10 +1325,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1652,178 +1662,190 @@
   <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D975" sqref="D975"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="9" max="9" width="121.625" customWidth="1"/>
+    <col min="9" max="9" width="103" style="6" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="12.75" spans="1:49">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="8" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="7">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F717:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A562">
       <formula1>Sheet2!$A$2:$A$120</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A563:A1000">
+      <formula1>Sheet2!$A$2:$A$118</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>Sheet2!$B$2:$B$43</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C691 D2:E794">
+      <formula1>Sheet2!$B$2:$B$45</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C692:C1048576 D795:D1048576 E795:E1048576">
+      <formula1>Sheet2!$B$2:$B$23</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F716">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:E$1048576">
-      <formula1>Sheet2!$B$2:$B$23</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1837,8 +1859,8 @@
   <sheetPr/>
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A43" sqref="$A43:$XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2567,12 +2589,12 @@
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="3" t="s">
+      <c r="A119" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="3" t="s">
+      <c r="A120" t="s">
         <v>210</v>
       </c>
     </row>

--- a/xbrx_12345_excel_tool/templates/sangao_template.xlsx
+++ b/xbrx_12345_excel_tool/templates/sangao_template.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212">
   <si>
     <t>服务类别</t>
   </si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>施工回填</t>
+  </si>
+  <si>
+    <t>东泉供水公司</t>
   </si>
   <si>
     <t>设施伤害赔偿</t>
@@ -659,9 +662,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -698,23 +701,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,7 +716,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,14 +777,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -758,15 +815,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,63 +838,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,169 +860,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,6 +1069,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1077,51 +1106,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,6 +1128,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1153,13 +1152,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,10 +1174,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1183,137 +1186,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1325,20 +1328,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1662,189 +1655,181 @@
   <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="9" max="9" width="103" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="102.5" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="8.125" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="12.75" spans="1:49">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="Z1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AI1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AK1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AM1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AN1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AO1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AR1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AS1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AU1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AW1" s="7" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F717:F1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A562">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 D1 B1235:B1048576 C1206:C1048576 D1101:D1048576 E$1:E$1048576">
+      <formula1>Sheet2!$B$2:$B$23</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F1140:F1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1157">
       <formula1>Sheet2!$A$2:$A$120</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A563:A1000">
-      <formula1>Sheet2!$A$2:$A$118</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1234 C2:C1205 D2:D1100">
+      <formula1>Sheet2!$B$2:$B$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>Sheet2!$B$2:$B$43</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C691 D2:E794">
-      <formula1>Sheet2!$B$2:$B$45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C692:C1048576 D795:D1048576 E795:E1048576">
-      <formula1>Sheet2!$B$2:$B$23</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F716">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1139">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1859,8 +1844,8 @@
   <sheetPr/>
   <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="$A43:$XFD43"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2213,389 +2198,392 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
